--- a/norm/test_deep50_100kHz_norm.xlsx
+++ b/norm/test_deep50_100kHz_norm.xlsx
@@ -372,7 +372,7 @@
           <t>Im[V]</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Re[V]</t>
         </is>
